--- a/classfiers/chain/svm/smote/chain-svm-poly-results.xlsx
+++ b/classfiers/chain/svm/smote/chain-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6104972375690608</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9650655021834061</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7478849407783418</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.840307575469907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6122994652406417</v>
+        <v>0.9585062240663901</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7595356550580431</v>
+        <v>0.9788135593220338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8747864059236757</v>
+        <v>0.9901185770750989</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5165094339622641</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9521739130434783</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6697247706422018</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5155876210366432</v>
+        <v>0.9998487712665407</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5044843049327354</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.665680473372781</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4531422061894816</v>
+        <v>0.9969565217391305</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4875846501128668</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9432314410480349</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4403424801205164</v>
+        <v>0.9973913043478261</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5462750183635137</v>
+        <v>0.9823248056496048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9677463451680273</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.697136596541702</v>
+        <v>0.9910277971161969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6248332577480449</v>
+        <v>0.9968630348857193</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/smote/chain-svm-poly-results.xlsx
+++ b/classfiers/chain/svm/smote/chain-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.6949152542372881</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.7653</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9585062240663901</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9788135593220338</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9901185770750989</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.795</v>
       </c>
       <c r="D4" t="n">
-        <v>0.989247311827957</v>
+        <v>0.8857938718662953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998487712665407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.989247311827957</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9969565217391305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.995</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9974937343358395</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9973913043478261</v>
+        <v>0.9994095477386935</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9823248056496048</v>
+        <v>0.9195882352941176</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9910277971161969</v>
+        <v>0.8982492677400584</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9968630348857193</v>
+        <v>0.9529419095477387</v>
       </c>
     </row>
   </sheetData>
